--- a/src/main/resources/agent_voucher/28#voucher_template.xlsx
+++ b/src/main/resources/agent_voucher/28#voucher_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouqianhao/Projects/nztrip/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouqianhao/Projects/nztrip/src/main/resources/agent_voucher/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$17</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Booked by EYOUNZ LTD</t>
   </si>
@@ -139,6 +139,12 @@
   <si>
     <t>7x24小时中文热线：+86 1010 1020</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>门票形式</t>
+  </si>
+  <si>
+    <t>TICKET INFO</t>
   </si>
 </sst>
 </file>
@@ -241,26 +247,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -337,13 +343,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -701,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:I6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -713,26 +719,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="H2" s="1"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -758,11 +764,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -772,13 +778,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -788,13 +794,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -804,13 +810,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -836,13 +842,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -852,13 +858,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -900,16 +906,38 @@
         <v>18</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E11:I11"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E7:I7"/>
@@ -918,11 +946,6 @@
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E11:I11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
